--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_28.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,716 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1762820512820513</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:59.437845', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:21.160000', '0:00:31.440000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:32.700000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:09.600000', '0:00:32.340000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:30.240000', '0:00:38.500000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:00:16.240000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08548632218844984</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min/b7', 'A:min', 'G'], ['A', 'D', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'A'], ['B', 'E', 'A'], ['D', 'E', 'A']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.981768, 19.977142), (62.748299, 67.543219), (6.126439, 9.980952)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(21.3339, 25.00678), (63.292358, 70.397664), (52.750498, 59.809365)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:00:07.525011', '0:00:20.319206'), ('0:00:09.370997', '0:00:22.141972')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.58, 32.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(46.22, 48.94)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:20.432000', '0:00:32.032000'), ('0:02:14.784000', '0:02:21.453000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
